--- a/biology/Histoire de la zoologie et de la botanique/William_Berryman_Scott/William_Berryman_Scott.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Berryman_Scott/William_Berryman_Scott.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Berryman Scott (12 février 1858-29 mars 1947) est un paléontologue américain, spécialiste des vertébrés.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie à l'université de Princeton puis à l'université de Heidelberg où il obtient son Ph.D. en 1880. Il a comme professeur Thomas Henry Huxley et Karl Gegenbaur. Il se marie avec Alice Adeline Post le 15 décembre 1883.
 Il est professeur de géologie et de paléontologie à l'université de Princeton de 1884 à 1930 ainsi que directeur du département de géologie de cette université de sa création en 1904 jusqu'en 1930.
@@ -546,7 +560,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il reçoit la médaille Penrose de la Geological Society of America en 1939 et la médaille Wollaston en 1910.
 </t>
@@ -577,9 +593,11 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1895 : The osteology and relations of Protoceras. Boston, Ginn &amp; company. 1 p.l., [303]-374. 3 pl. (2 fold.) diagr. 26 cm.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1895 : The osteology and relations of Protoceras. Boston, Ginn &amp; company. 1 p.l., -374. 3 pl. (2 fold.) diagr. 26 cm.
 1897 : An introduction to geology (Macmillan, New York) – Exemplaire numérique sur Archive.org.
 1901-1932 : Reports of the Princeton University Expeditions to Patagonia, 1896-1899, université de Princeton, [v. 1, 1903] 8 v. in 13. illus. (part col.) maps (part fold., part col.) tables. 34 cm.
 Geological climates.
